--- a/biology/Botanique/American_Phytopathological_Society/American_Phytopathological_Society.xlsx
+++ b/biology/Botanique/American_Phytopathological_Society/American_Phytopathological_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'American Phytopathological Society (APS, société américaine de phytopathologie) est une organisation scientifique américaine à vocation internationale vouée à l'étude des maladies des plantes.
 L'APS favorise l'avancement des concepts modernes de la science de la pathologie végétale et de la gestion de la santé des végétaux dans les milieux agricoles, urbains et forestiers.
@@ -515,7 +527,9 @@
           <t>Revues</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La société publie depuis 1911 des recherches scientifiques évaluées par les pairs et, aujourd'hui, édite cinq revues dans le domaine de la pathologie végétale :
 Phytopathology  (ISSN 0031-949X),
